--- a/QAlegend/src/main/java/resources/Userdetails.xlsx
+++ b/QAlegend/src/main/java/resources/Userdetails.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D1AAA02-F42D-4D10-ACD3-509D0719665C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7416372B-B6EA-4619-9811-53A4C96C6E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>prefix</t>
   </si>
@@ -70,13 +71,49 @@
   </si>
   <si>
     <t>Mid@12345</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Contact No</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Sales Commission Percentage (%)</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Midhun</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>midhu@gmail.com</t>
+  </si>
+  <si>
+    <t>200 Baystreet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +128,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +158,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -518,4 +563,76 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1104A0CB-6C34-45BA-AB37-28B4D28AE36F}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>5194670073</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{36674F6B-F769-41A6-803C-9C085E526CA3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QAlegend/src/main/java/resources/Userdetails.xlsx
+++ b/QAlegend/src/main/java/resources/Userdetails.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7416372B-B6EA-4619-9811-53A4C96C6E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51F5D3C4-2E34-4976-9A0B-320846BDCB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>prefix</t>
   </si>
@@ -107,6 +108,36 @@
   </si>
   <si>
     <t>200 Baystreet</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>contactid</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>cityname</t>
+  </si>
+  <si>
+    <t>AnnM</t>
+  </si>
+  <si>
+    <t>BHG</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
   </si>
 </sst>
 </file>
@@ -569,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1104A0CB-6C34-45BA-AB37-28B4D28AE36F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -635,4 +666,68 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBE6DD9-26AD-4AA3-BC74-36C44B577CC4}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>9876</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>4567</v>
+      </c>
+      <c r="F2">
+        <v>987654321</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>